--- a/urenregistratie.xlsx
+++ b/urenregistratie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwiersma/sites/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1A1033-5783-3046-B697-645232F69A5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A14B2B4-09C3-814A-BD19-1D08C8A70CBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="26340" windowHeight="13340" xr2:uid="{9E752D5F-D424-8A45-A6A6-FBD721AB53F5}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Urenregistratie" sheetId="1" r:id="rId1"/>
     <sheet name="Commandline-geschiedenis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Urenregistratie Matthijs Wiersma</t>
   </si>
@@ -179,10 +180,19 @@
     <t>Installatie gelukt</t>
   </si>
   <si>
-    <t>Git-issues aanmaken en project opzetten</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Flowchart</t>
+  </si>
+  <si>
+    <t>Flowchart af</t>
+  </si>
+  <si>
+    <t>Datamodel in MySQL workbench + import db</t>
+  </si>
+  <si>
+    <t>Gelukt</t>
+  </si>
+  <si>
+    <t>Controllers and logic</t>
   </si>
 </sst>
 </file>
@@ -619,7 +629,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +656,7 @@
       </c>
       <c r="B3" s="6">
         <f>E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31</f>
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -718,17 +728,17 @@
         <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>43465</v>
+        <v>43473</v>
       </c>
       <c r="C8" s="2">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E31" si="0">D8-C8</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -741,9 +751,24 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43473</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>16</v>
@@ -753,9 +778,24 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43476</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/urenregistratie.xlsx
+++ b/urenregistratie.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwiersma/sites/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A14B2B4-09C3-814A-BD19-1D08C8A70CBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957AA2E-EBFC-A544-B056-68BF288FF635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="26340" windowHeight="13340" xr2:uid="{9E752D5F-D424-8A45-A6A6-FBD721AB53F5}"/>
+    <workbookView xWindow="13660" yWindow="460" windowWidth="13660" windowHeight="14900" xr2:uid="{9E752D5F-D424-8A45-A6A6-FBD721AB53F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Urenregistratie" sheetId="1" r:id="rId1"/>
     <sheet name="Commandline-geschiedenis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -629,7 +628,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +655,7 @@
       </c>
       <c r="B3" s="6">
         <f>E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31</f>
-        <v>11</v>
+        <v>19.75</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -799,27 +798,63 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>43482</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>43483</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>43484</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>43485</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.25</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -854,73 +889,73 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E14:E31" si="1">D21-C21</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
